--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -11680,7 +11680,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z530" sqref="Z530"/>
+      <selection pane="bottomRight" activeCell="Y530" sqref="Y530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44710,10 +44710,10 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA521" s="67">
         <v>70</v>
@@ -44778,10 +44778,10 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA522" s="67">
         <v>70</v>
@@ -44846,10 +44846,10 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA523" s="67">
         <v>70</v>
@@ -44914,10 +44914,10 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA524" s="67">
         <v>70</v>
@@ -44982,10 +44982,10 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA525" s="67">
         <v>71</v>
@@ -45050,10 +45050,10 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA526" s="67">
         <v>71</v>
@@ -45118,10 +45118,10 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA527" s="67">
         <v>71</v>
@@ -45186,10 +45186,10 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA528" s="67">
         <v>71</v>
@@ -45254,10 +45254,10 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA529" s="67">
         <v>72</v>
@@ -45322,10 +45322,10 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA530" s="67">
         <v>72</v>
@@ -45390,10 +45390,10 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA531" s="67">
         <v>72</v>
@@ -45458,10 +45458,10 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="67">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="67">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="AA532" s="67">
         <v>72</v>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2076">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8784,6 +8784,70 @@
   </si>
   <si>
     <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2050万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8971,7 +9035,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9171,6 +9235,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11604,13 +11674,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN556"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W531" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C560" sqref="C560"/>
+      <selection pane="bottomRight" activeCell="A537" sqref="A537:A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46477,7 +46547,7 @@
       </c>
     </row>
     <row r="549" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="63">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
       <c r="B549" s="63">
@@ -46545,7 +46615,7 @@
       </c>
     </row>
     <row r="550" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="63">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
       <c r="B550" s="63">
@@ -46613,7 +46683,7 @@
       </c>
     </row>
     <row r="551" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="63">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
       <c r="B551" s="63">
@@ -46681,7 +46751,7 @@
       </c>
     </row>
     <row r="552" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="63">
+      <c r="A552" s="5">
         <v>551</v>
       </c>
       <c r="B552" s="63">
@@ -46749,7 +46819,7 @@
       </c>
     </row>
     <row r="553" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="65">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
       <c r="B553" s="65">
@@ -46817,7 +46887,7 @@
       </c>
     </row>
     <row r="554" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="65">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
       <c r="B554" s="65">
@@ -46885,7 +46955,7 @@
       </c>
     </row>
     <row r="555" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="65">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
       <c r="B555" s="65">
@@ -46953,7 +47023,7 @@
       </c>
     </row>
     <row r="556" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="65">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
       <c r="B556" s="65">
@@ -47017,6 +47087,600 @@
         <v>1</v>
       </c>
       <c r="AM556" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="67">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="67">
+        <v>1</v>
+      </c>
+      <c r="G557" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="I557" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J557" s="67" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L557" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="67">
+        <v>0</v>
+      </c>
+      <c r="N557" s="67">
+        <v>0</v>
+      </c>
+      <c r="O557" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P557" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R557" s="68" t="s">
+        <v>2063</v>
+      </c>
+      <c r="W557" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X557" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="67">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="67">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="67">
+        <v>1</v>
+      </c>
+      <c r="G558" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="I558" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J558" s="67" t="s">
+        <v>2064</v>
+      </c>
+      <c r="L558" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="67">
+        <v>0</v>
+      </c>
+      <c r="N558" s="67">
+        <v>0</v>
+      </c>
+      <c r="O558" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P558" s="67">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R558" s="68" t="s">
+        <v>2065</v>
+      </c>
+      <c r="W558" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X558" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="67">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="67">
+        <v>1</v>
+      </c>
+      <c r="G559" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I559" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J559" s="67" t="s">
+        <v>2066</v>
+      </c>
+      <c r="L559" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="67">
+        <v>0</v>
+      </c>
+      <c r="N559" s="67">
+        <v>0</v>
+      </c>
+      <c r="O559" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P559" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R559" s="68" t="s">
+        <v>2067</v>
+      </c>
+      <c r="W559" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X559" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="67">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="67">
+        <v>1</v>
+      </c>
+      <c r="G560" s="67" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I560" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J560" s="67" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L560" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="67">
+        <v>0</v>
+      </c>
+      <c r="N560" s="67">
+        <v>0</v>
+      </c>
+      <c r="O560" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P560" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R560" s="68" t="s">
+        <v>2063</v>
+      </c>
+      <c r="W560" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X560" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="67">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="67">
+        <v>1</v>
+      </c>
+      <c r="G561" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="I561" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J561" s="67" t="s">
+        <v>2070</v>
+      </c>
+      <c r="L561" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="67">
+        <v>0</v>
+      </c>
+      <c r="N561" s="67">
+        <v>0</v>
+      </c>
+      <c r="O561" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P561" s="67">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R561" s="68" t="s">
+        <v>1419</v>
+      </c>
+      <c r="W561" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X561" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="67">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="67">
+        <v>1</v>
+      </c>
+      <c r="G562" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I562" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J562" s="67" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L562" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="67">
+        <v>0</v>
+      </c>
+      <c r="N562" s="67">
+        <v>0</v>
+      </c>
+      <c r="O562" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P562" s="67">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R562" s="68" t="s">
+        <v>2072</v>
+      </c>
+      <c r="W562" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X562" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="67">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="67">
+        <v>1</v>
+      </c>
+      <c r="G563" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="I563" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J563" s="67" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L563" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="67">
+        <v>0</v>
+      </c>
+      <c r="N563" s="67">
+        <v>0</v>
+      </c>
+      <c r="O563" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P563" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R563" s="68" t="s">
+        <v>2063</v>
+      </c>
+      <c r="W563" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X563" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="67">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="67">
+        <v>1</v>
+      </c>
+      <c r="G564" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I564" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J564" s="67" t="s">
+        <v>2066</v>
+      </c>
+      <c r="L564" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="67">
+        <v>0</v>
+      </c>
+      <c r="N564" s="67">
+        <v>0</v>
+      </c>
+      <c r="O564" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P564" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R564" s="68" t="s">
+        <v>2073</v>
+      </c>
+      <c r="W564" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X564" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="67">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="67">
+        <v>1</v>
+      </c>
+      <c r="G565" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I565" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J565" s="67" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L565" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="67">
+        <v>0</v>
+      </c>
+      <c r="N565" s="67">
+        <v>0</v>
+      </c>
+      <c r="O565" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P565" s="67">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R565" s="68" t="s">
+        <v>2075</v>
+      </c>
+      <c r="W565" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X565" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="67">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -11677,10 +11677,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W531" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A537" sqref="A537:A565"/>
+      <selection pane="bottomRight" activeCell="Z530" sqref="Z530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44663,819 +44663,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="67">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="67">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="67">
+        <v>1</v>
+      </c>
+      <c r="G521" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="67" t="s">
         <v>1921</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="67">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="67">
+        <v>0</v>
+      </c>
+      <c r="N521" s="67">
+        <v>0</v>
+      </c>
+      <c r="O521" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="67">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="67" t="s">
         <v>1922</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="68" t="s">
         <v>2005</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="67" t="s">
         <v>1923</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z521" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA521" s="67">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="AH521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="67">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="67">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="67">
+        <v>1</v>
+      </c>
+      <c r="G522" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="67" t="s">
         <v>1925</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="67">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="67">
+        <v>0</v>
+      </c>
+      <c r="N522" s="67">
+        <v>0</v>
+      </c>
+      <c r="O522" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="67">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="68" t="s">
         <v>1928</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z522" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA522" s="67">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="AH522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="67">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="67">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="67">
+        <v>1</v>
+      </c>
+      <c r="G523" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="67" t="s">
         <v>1930</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="67">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="67">
+        <v>0</v>
+      </c>
+      <c r="N523" s="67">
+        <v>0</v>
+      </c>
+      <c r="O523" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="67">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="68" t="s">
         <v>1933</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z523" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA523" s="67">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="AH523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="67">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="67">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="67">
+        <v>1</v>
+      </c>
+      <c r="G524" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="67" t="s">
         <v>1935</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="67">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="67">
+        <v>0</v>
+      </c>
+      <c r="N524" s="67">
+        <v>0</v>
+      </c>
+      <c r="O524" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="67">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="68" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z524" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA524" s="67">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="AH524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="67">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="67">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="67">
+        <v>1</v>
+      </c>
+      <c r="G525" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="67">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="67">
+        <v>0</v>
+      </c>
+      <c r="N525" s="67">
+        <v>0</v>
+      </c>
+      <c r="O525" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="67">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="67" t="s">
         <v>1942</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="68" t="s">
         <v>1932</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z525" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA525" s="67">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="AH525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="67">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="67">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="67">
+        <v>1</v>
+      </c>
+      <c r="G526" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="67" t="s">
         <v>1943</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="67">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="67">
+        <v>0</v>
+      </c>
+      <c r="N526" s="67">
+        <v>0</v>
+      </c>
+      <c r="O526" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="67">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="68" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z526" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA526" s="67">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="AH526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="67">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="67">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="67">
+        <v>1</v>
+      </c>
+      <c r="G527" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="67" t="s">
         <v>1946</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="67">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="67">
+        <v>0</v>
+      </c>
+      <c r="N527" s="67">
+        <v>0</v>
+      </c>
+      <c r="O527" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="67">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="68" t="s">
         <v>1948</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z527" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA527" s="67">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="AH527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="67">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="67">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="67">
+        <v>1</v>
+      </c>
+      <c r="G528" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="67" t="s">
         <v>1939</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="67" t="s">
         <v>1949</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="67">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="67">
+        <v>0</v>
+      </c>
+      <c r="N528" s="67">
+        <v>0</v>
+      </c>
+      <c r="O528" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="67">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="68" t="s">
         <v>1950</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z528" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA528" s="67">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="AH528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="67">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="67">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="67">
+        <v>1</v>
+      </c>
+      <c r="G529" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="67" t="s">
         <v>1953</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="67">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="67">
+        <v>0</v>
+      </c>
+      <c r="N529" s="67">
+        <v>0</v>
+      </c>
+      <c r="O529" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="67">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="67" t="s">
         <v>1942</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="68" t="s">
         <v>1944</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z529" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA529" s="67">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="AH529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="67">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="67">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="67">
+        <v>1</v>
+      </c>
+      <c r="G530" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="67" t="s">
         <v>1954</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="67">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="67">
+        <v>0</v>
+      </c>
+      <c r="N530" s="67">
+        <v>0</v>
+      </c>
+      <c r="O530" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="67">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="68" t="s">
         <v>1947</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z530" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA530" s="67">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="AH530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="67">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="67">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="67">
+        <v>1</v>
+      </c>
+      <c r="G531" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="67" t="s">
         <v>1955</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="67">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="67">
+        <v>0</v>
+      </c>
+      <c r="N531" s="67">
+        <v>0</v>
+      </c>
+      <c r="O531" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="67">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="68" t="s">
         <v>1956</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z531" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA531" s="67">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="AH531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="67">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="67">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="67">
+        <v>1</v>
+      </c>
+      <c r="G532" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="67" t="s">
         <v>1957</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="67">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="67">
+        <v>0</v>
+      </c>
+      <c r="N532" s="67">
+        <v>0</v>
+      </c>
+      <c r="O532" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="67">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="67" t="s">
         <v>1936</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="68" t="s">
         <v>1958</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z532" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA532" s="67">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
+      <c r="AH532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="67">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="2028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="2060">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8656,6 +8656,134 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8727,7 +8855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8794,6 +8922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8837,7 +8971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9033,7 +9167,10 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11467,13 +11604,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN556"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W531" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA545" activeCellId="1" sqref="AA533:AA541 AA545"/>
+      <selection pane="bottomRight" activeCell="C560" sqref="C560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45888,61 +46025,52 @@
       <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="63">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="C542" s="63"/>
-      <c r="D542" s="63"/>
-      <c r="E542" s="63"/>
-      <c r="F542" s="63">
-        <v>1</v>
-      </c>
-      <c r="G542" s="63" t="s">
+      <c r="F542" s="5">
+        <v>1</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="H542" s="63"/>
-      <c r="I542" s="63" t="s">
+      <c r="I542" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J542" s="63" t="s">
+      <c r="J542" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="K542" s="63"/>
-      <c r="L542" s="63">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="63">
-        <v>0</v>
-      </c>
-      <c r="N542" s="63">
-        <v>0</v>
-      </c>
-      <c r="O542" s="63" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>2009</v>
       </c>
-      <c r="P542" s="63">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="63" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="R542" s="64" t="s">
+      <c r="R542" s="10" t="s">
         <v>2011</v>
       </c>
-      <c r="S542" s="63"/>
-      <c r="T542" s="63"/>
-      <c r="U542" s="63"/>
-      <c r="V542" s="63"/>
-      <c r="W542" s="63" t="s">
+      <c r="W542" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="X542" s="63">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="65">
+      <c r="Y542" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z542" s="65">
+      <c r="Z542" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH542" s="5">
@@ -45962,61 +46090,52 @@
       <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="63">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="C543" s="63"/>
-      <c r="D543" s="63"/>
-      <c r="E543" s="63"/>
-      <c r="F543" s="63">
-        <v>1</v>
-      </c>
-      <c r="G543" s="63" t="s">
+      <c r="F543" s="5">
+        <v>1</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2013</v>
       </c>
-      <c r="H543" s="63"/>
-      <c r="I543" s="63" t="s">
+      <c r="I543" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J543" s="63" t="s">
+      <c r="J543" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="K543" s="63"/>
-      <c r="L543" s="63">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="63">
-        <v>0</v>
-      </c>
-      <c r="N543" s="63">
-        <v>0</v>
-      </c>
-      <c r="O543" s="63" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P543" s="63">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="63" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="R543" s="64" t="s">
+      <c r="R543" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="S543" s="63"/>
-      <c r="T543" s="63"/>
-      <c r="U543" s="63"/>
-      <c r="V543" s="63"/>
-      <c r="W543" s="63" t="s">
+      <c r="W543" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X543" s="63">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="65">
+      <c r="Y543" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z543" s="65">
+      <c r="Z543" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH543" s="5">
@@ -46036,61 +46155,52 @@
       <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="63">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="C544" s="63"/>
-      <c r="D544" s="63"/>
-      <c r="E544" s="63"/>
-      <c r="F544" s="63">
-        <v>1</v>
-      </c>
-      <c r="G544" s="63" t="s">
+      <c r="F544" s="5">
+        <v>1</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="H544" s="63"/>
-      <c r="I544" s="63" t="s">
+      <c r="I544" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="J544" s="63" t="s">
+      <c r="J544" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="K544" s="63"/>
-      <c r="L544" s="63">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="63">
-        <v>0</v>
-      </c>
-      <c r="N544" s="63">
-        <v>0</v>
-      </c>
-      <c r="O544" s="63" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P544" s="63">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="63" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="R544" s="64" t="s">
+      <c r="R544" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="S544" s="63"/>
-      <c r="T544" s="63"/>
-      <c r="U544" s="63"/>
-      <c r="V544" s="63"/>
-      <c r="W544" s="63" t="s">
+      <c r="W544" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X544" s="63">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="65">
+      <c r="Y544" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z544" s="65">
+      <c r="Z544" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH544" s="5">
@@ -46110,61 +46220,52 @@
       <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="63">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="C545" s="63"/>
-      <c r="D545" s="63"/>
-      <c r="E545" s="63"/>
-      <c r="F545" s="63">
-        <v>1</v>
-      </c>
-      <c r="G545" s="63" t="s">
+      <c r="F545" s="5">
+        <v>1</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="H545" s="63"/>
-      <c r="I545" s="63" t="s">
+      <c r="I545" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J545" s="63" t="s">
+      <c r="J545" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="K545" s="63"/>
-      <c r="L545" s="63">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="63">
-        <v>0</v>
-      </c>
-      <c r="N545" s="63">
-        <v>0</v>
-      </c>
-      <c r="O545" s="63" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P545" s="63">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="63" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="R545" s="64" t="s">
+      <c r="R545" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="S545" s="63"/>
-      <c r="T545" s="63"/>
-      <c r="U545" s="63"/>
-      <c r="V545" s="63"/>
-      <c r="W545" s="63" t="s">
+      <c r="W545" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X545" s="63">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="65">
+      <c r="Y545" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z545" s="65">
+      <c r="Z545" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH545" s="5">
@@ -46184,61 +46285,52 @@
       <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="63">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="C546" s="63"/>
-      <c r="D546" s="63"/>
-      <c r="E546" s="63"/>
-      <c r="F546" s="63">
-        <v>1</v>
-      </c>
-      <c r="G546" s="63" t="s">
+      <c r="F546" s="5">
+        <v>1</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="H546" s="63"/>
-      <c r="I546" s="63" t="s">
+      <c r="I546" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="J546" s="63" t="s">
+      <c r="J546" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="K546" s="63"/>
-      <c r="L546" s="63">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="63">
-        <v>0</v>
-      </c>
-      <c r="N546" s="63">
-        <v>0</v>
-      </c>
-      <c r="O546" s="63" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P546" s="63">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="63" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="R546" s="64" t="s">
+      <c r="R546" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="S546" s="63"/>
-      <c r="T546" s="63"/>
-      <c r="U546" s="63"/>
-      <c r="V546" s="63"/>
-      <c r="W546" s="63" t="s">
+      <c r="W546" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X546" s="63">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="65">
+      <c r="Y546" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z546" s="65">
+      <c r="Z546" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH546" s="5">
@@ -46258,61 +46350,52 @@
       <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="63">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="C547" s="63"/>
-      <c r="D547" s="63"/>
-      <c r="E547" s="63"/>
-      <c r="F547" s="63">
-        <v>1</v>
-      </c>
-      <c r="G547" s="63" t="s">
+      <c r="F547" s="5">
+        <v>1</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="H547" s="63"/>
-      <c r="I547" s="63" t="s">
+      <c r="I547" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J547" s="63" t="s">
+      <c r="J547" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="K547" s="63"/>
-      <c r="L547" s="63">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="63">
-        <v>0</v>
-      </c>
-      <c r="N547" s="63">
-        <v>0</v>
-      </c>
-      <c r="O547" s="63" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P547" s="63">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="63" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R547" s="64" t="s">
+      <c r="R547" s="10" t="s">
         <v>2023</v>
       </c>
-      <c r="S547" s="63"/>
-      <c r="T547" s="63"/>
-      <c r="U547" s="63"/>
-      <c r="V547" s="63"/>
-      <c r="W547" s="63" t="s">
+      <c r="W547" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X547" s="63">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="65">
+      <c r="Y547" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z547" s="65">
+      <c r="Z547" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH547" s="5">
@@ -46332,61 +46415,52 @@
       <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="63">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="C548" s="63"/>
-      <c r="D548" s="63"/>
-      <c r="E548" s="63"/>
-      <c r="F548" s="63">
-        <v>1</v>
-      </c>
-      <c r="G548" s="63" t="s">
+      <c r="F548" s="5">
+        <v>1</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="H548" s="63"/>
-      <c r="I548" s="63" t="s">
+      <c r="I548" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J548" s="63" t="s">
+      <c r="J548" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="K548" s="63"/>
-      <c r="L548" s="63">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="63">
-        <v>0</v>
-      </c>
-      <c r="N548" s="63">
-        <v>0</v>
-      </c>
-      <c r="O548" s="63" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P548" s="63">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="63" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R548" s="64" t="s">
+      <c r="R548" s="10" t="s">
         <v>1785</v>
       </c>
-      <c r="S548" s="63"/>
-      <c r="T548" s="63"/>
-      <c r="U548" s="63"/>
-      <c r="V548" s="63"/>
-      <c r="W548" s="63" t="s">
+      <c r="W548" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X548" s="63">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="65">
+      <c r="Y548" s="11">
         <v>1612224000</v>
       </c>
-      <c r="Z548" s="65">
+      <c r="Z548" s="11">
         <v>1612799999</v>
       </c>
       <c r="AH548" s="5">
@@ -46399,6 +46473,550 @@
         <v>1</v>
       </c>
       <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="63">
+        <v>548</v>
+      </c>
+      <c r="B549" s="63">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="63">
+        <v>1</v>
+      </c>
+      <c r="G549" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I549" s="63" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J549" s="63" t="s">
+        <v>2030</v>
+      </c>
+      <c r="L549" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="63">
+        <v>0</v>
+      </c>
+      <c r="N549" s="63">
+        <v>0</v>
+      </c>
+      <c r="O549" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P549" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R549" s="64" t="s">
+        <v>2032</v>
+      </c>
+      <c r="W549" s="63" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X549" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="63">
+        <v>549</v>
+      </c>
+      <c r="B550" s="63">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="63">
+        <v>1</v>
+      </c>
+      <c r="G550" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I550" s="63" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J550" s="63" t="s">
+        <v>2034</v>
+      </c>
+      <c r="L550" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="63">
+        <v>0</v>
+      </c>
+      <c r="N550" s="63">
+        <v>0</v>
+      </c>
+      <c r="O550" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P550" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q550" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R550" s="64" t="s">
+        <v>2035</v>
+      </c>
+      <c r="W550" s="63" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X550" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="63">
+        <v>550</v>
+      </c>
+      <c r="B551" s="63">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="63">
+        <v>1</v>
+      </c>
+      <c r="G551" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I551" s="63" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J551" s="63" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L551" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="63">
+        <v>0</v>
+      </c>
+      <c r="N551" s="63">
+        <v>0</v>
+      </c>
+      <c r="O551" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P551" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R551" s="64" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W551" s="63" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X551" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="63">
+        <v>551</v>
+      </c>
+      <c r="B552" s="63">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="63">
+        <v>1</v>
+      </c>
+      <c r="G552" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I552" s="63" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J552" s="63" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L552" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="63">
+        <v>0</v>
+      </c>
+      <c r="N552" s="63">
+        <v>0</v>
+      </c>
+      <c r="O552" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P552" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="63" t="s">
+        <v>2041</v>
+      </c>
+      <c r="R552" s="64" t="s">
+        <v>2042</v>
+      </c>
+      <c r="W552" s="63" t="s">
+        <v>2043</v>
+      </c>
+      <c r="X552" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="65">
+        <v>552</v>
+      </c>
+      <c r="B553" s="65">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="65">
+        <v>1</v>
+      </c>
+      <c r="G553" s="65" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I553" s="65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="J553" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="L553" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="65">
+        <v>0</v>
+      </c>
+      <c r="N553" s="65">
+        <v>0</v>
+      </c>
+      <c r="O553" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P553" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="R553" s="66" t="s">
+        <v>2048</v>
+      </c>
+      <c r="W553" s="65" t="s">
+        <v>2043</v>
+      </c>
+      <c r="X553" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="65">
+        <v>553</v>
+      </c>
+      <c r="B554" s="65">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="65">
+        <v>1</v>
+      </c>
+      <c r="G554" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="I554" s="65" t="s">
+        <v>2050</v>
+      </c>
+      <c r="J554" s="65" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L554" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="65">
+        <v>0</v>
+      </c>
+      <c r="N554" s="65">
+        <v>0</v>
+      </c>
+      <c r="O554" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P554" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q554" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="R554" s="66" t="s">
+        <v>2052</v>
+      </c>
+      <c r="W554" s="65" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X554" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="65">
+        <v>554</v>
+      </c>
+      <c r="B555" s="65">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="65">
+        <v>1</v>
+      </c>
+      <c r="G555" s="65" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I555" s="65" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J555" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L555" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="65">
+        <v>0</v>
+      </c>
+      <c r="N555" s="65">
+        <v>0</v>
+      </c>
+      <c r="O555" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P555" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="65" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R555" s="66" t="s">
+        <v>2056</v>
+      </c>
+      <c r="W555" s="65" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X555" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="65">
+        <v>555</v>
+      </c>
+      <c r="B556" s="65">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="65">
+        <v>1</v>
+      </c>
+      <c r="G556" s="65" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I556" s="65" t="s">
+        <v>2057</v>
+      </c>
+      <c r="J556" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L556" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="65">
+        <v>0</v>
+      </c>
+      <c r="N556" s="65">
+        <v>0</v>
+      </c>
+      <c r="O556" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P556" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="65" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R556" s="66" t="s">
+        <v>2059</v>
+      </c>
+      <c r="W556" s="65" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X556" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="65">
         <v>1</v>
       </c>
     </row>
@@ -46414,7 +47032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -11700,10 +11700,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W553" sqref="W553"/>
+      <selection pane="bottomRight" activeCell="Q553" sqref="Q553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46669,7 +46669,7 @@
         <v>112</v>
       </c>
       <c r="P550" s="63">
-        <v>49800</v>
+        <v>19800</v>
       </c>
       <c r="Q550" s="63" t="s">
         <v>2031</v>
@@ -46941,7 +46941,7 @@
         <v>112</v>
       </c>
       <c r="P554" s="65">
-        <v>49800</v>
+        <v>19800</v>
       </c>
       <c r="Q554" s="65" t="s">
         <v>2046</v>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2078">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8719,10 +8719,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>贺岁礼包--cjj</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8848,6 +8844,18 @@
   </si>
   <si>
     <t>20500000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11695,7 +11703,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z546" sqref="Z546"/>
+      <selection pane="bottomRight" activeCell="W553" sqref="W553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46602,7 +46610,7 @@
         <v>2032</v>
       </c>
       <c r="W549" s="63" t="s">
-        <v>1974</v>
+        <v>2075</v>
       </c>
       <c r="X549" s="63">
         <v>9999999</v>
@@ -46670,7 +46678,7 @@
         <v>2035</v>
       </c>
       <c r="W550" s="63" t="s">
-        <v>1974</v>
+        <v>1416</v>
       </c>
       <c r="X550" s="63">
         <v>9999999</v>
@@ -46738,7 +46746,7 @@
         <v>2038</v>
       </c>
       <c r="W551" s="63" t="s">
-        <v>1974</v>
+        <v>2076</v>
       </c>
       <c r="X551" s="63">
         <v>9999999</v>
@@ -46806,7 +46814,7 @@
         <v>2042</v>
       </c>
       <c r="W552" s="63" t="s">
-        <v>2043</v>
+        <v>2077</v>
       </c>
       <c r="X552" s="63">
         <v>9999999</v>
@@ -46844,13 +46852,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="65" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I553" s="65" t="s">
         <v>2044</v>
       </c>
-      <c r="I553" s="65" t="s">
+      <c r="J553" s="65" t="s">
         <v>2045</v>
-      </c>
-      <c r="J553" s="65" t="s">
-        <v>2046</v>
       </c>
       <c r="L553" s="65">
         <v>-31</v>
@@ -46868,13 +46876,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R553" s="66" t="s">
         <v>2047</v>
       </c>
-      <c r="R553" s="66" t="s">
-        <v>2048</v>
-      </c>
       <c r="W553" s="65" t="s">
-        <v>2043</v>
+        <v>1424</v>
       </c>
       <c r="X553" s="65">
         <v>9999999</v>
@@ -46912,13 +46920,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="65" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I554" s="65" t="s">
         <v>2049</v>
       </c>
-      <c r="I554" s="65" t="s">
+      <c r="J554" s="65" t="s">
         <v>2050</v>
-      </c>
-      <c r="J554" s="65" t="s">
-        <v>2051</v>
       </c>
       <c r="L554" s="65">
         <v>-31</v>
@@ -46936,13 +46944,13 @@
         <v>49800</v>
       </c>
       <c r="Q554" s="65" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="R554" s="66" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="W554" s="65" t="s">
-        <v>1974</v>
+        <v>1424</v>
       </c>
       <c r="X554" s="65">
         <v>9999999</v>
@@ -46980,13 +46988,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="65" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="I555" s="65" t="s">
         <v>2036</v>
       </c>
       <c r="J555" s="65" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="L555" s="65">
         <v>-31</v>
@@ -47004,13 +47012,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R555" s="66" t="s">
         <v>2055</v>
       </c>
-      <c r="R555" s="66" t="s">
-        <v>2056</v>
-      </c>
       <c r="W555" s="65" t="s">
-        <v>1974</v>
+        <v>1424</v>
       </c>
       <c r="X555" s="65">
         <v>9999999</v>
@@ -47048,13 +47056,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="65" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I556" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J556" s="65" t="s">
         <v>2057</v>
-      </c>
-      <c r="J556" s="65" t="s">
-        <v>2058</v>
       </c>
       <c r="L556" s="65">
         <v>-31</v>
@@ -47072,13 +47080,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="65" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="R556" s="66" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="W556" s="65" t="s">
-        <v>1974</v>
+        <v>1424</v>
       </c>
       <c r="X556" s="65">
         <v>9999999</v>
@@ -47119,10 +47127,10 @@
         <v>579</v>
       </c>
       <c r="I557" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J557" s="67" t="s">
         <v>2061</v>
-      </c>
-      <c r="J557" s="67" t="s">
-        <v>2062</v>
       </c>
       <c r="L557" s="67">
         <v>-25</v>
@@ -47143,7 +47151,7 @@
         <v>89</v>
       </c>
       <c r="R557" s="68" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="W557" s="67" t="s">
         <v>541</v>
@@ -47185,10 +47193,10 @@
         <v>531</v>
       </c>
       <c r="I558" s="67" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J558" s="67" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="L558" s="67">
         <v>-25</v>
@@ -47209,7 +47217,7 @@
         <v>89</v>
       </c>
       <c r="R558" s="68" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="W558" s="67" t="s">
         <v>541</v>
@@ -47251,10 +47259,10 @@
         <v>278</v>
       </c>
       <c r="I559" s="67" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="J559" s="67" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="L559" s="67">
         <v>-25</v>
@@ -47275,7 +47283,7 @@
         <v>89</v>
       </c>
       <c r="R559" s="68" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="W559" s="67" t="s">
         <v>541</v>
@@ -47314,13 +47322,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="67" t="s">
+        <v>2067</v>
+      </c>
+      <c r="I560" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J560" s="67" t="s">
         <v>2068</v>
-      </c>
-      <c r="I560" s="67" t="s">
-        <v>2061</v>
-      </c>
-      <c r="J560" s="67" t="s">
-        <v>2069</v>
       </c>
       <c r="L560" s="67">
         <v>-25</v>
@@ -47341,7 +47349,7 @@
         <v>89</v>
       </c>
       <c r="R560" s="68" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="W560" s="67" t="s">
         <v>541</v>
@@ -47383,10 +47391,10 @@
         <v>532</v>
       </c>
       <c r="I561" s="67" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J561" s="67" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="L561" s="67">
         <v>-25</v>
@@ -47449,10 +47457,10 @@
         <v>77</v>
       </c>
       <c r="I562" s="67" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="J562" s="67" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="L562" s="67">
         <v>-25</v>
@@ -47473,7 +47481,7 @@
         <v>89</v>
       </c>
       <c r="R562" s="68" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="W562" s="67" t="s">
         <v>541</v>
@@ -47515,10 +47523,10 @@
         <v>579</v>
       </c>
       <c r="I563" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J563" s="67" t="s">
         <v>2061</v>
-      </c>
-      <c r="J563" s="67" t="s">
-        <v>2062</v>
       </c>
       <c r="L563" s="67">
         <v>-25</v>
@@ -47539,7 +47547,7 @@
         <v>89</v>
       </c>
       <c r="R563" s="68" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="W563" s="67" t="s">
         <v>541</v>
@@ -47581,10 +47589,10 @@
         <v>278</v>
       </c>
       <c r="I564" s="67" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J564" s="67" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="L564" s="67">
         <v>-25</v>
@@ -47605,7 +47613,7 @@
         <v>89</v>
       </c>
       <c r="R564" s="68" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="W564" s="67" t="s">
         <v>541</v>
@@ -47647,10 +47655,10 @@
         <v>81</v>
       </c>
       <c r="I565" s="67" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="J565" s="67" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="L565" s="67">
         <v>-25</v>
@@ -47671,7 +47679,7 @@
         <v>89</v>
       </c>
       <c r="R565" s="68" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="W565" s="67" t="s">
         <v>541</v>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -8847,15 +8847,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -46678,7 +46678,7 @@
         <v>2035</v>
       </c>
       <c r="W550" s="63" t="s">
-        <v>1416</v>
+        <v>2075</v>
       </c>
       <c r="X550" s="63">
         <v>9999999</v>
@@ -46746,7 +46746,7 @@
         <v>2038</v>
       </c>
       <c r="W551" s="63" t="s">
-        <v>2076</v>
+        <v>1316</v>
       </c>
       <c r="X551" s="63">
         <v>9999999</v>
@@ -46814,7 +46814,7 @@
         <v>2042</v>
       </c>
       <c r="W552" s="63" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="X552" s="63">
         <v>9999999</v>
@@ -46882,7 +46882,7 @@
         <v>2047</v>
       </c>
       <c r="W553" s="65" t="s">
-        <v>1424</v>
+        <v>2076</v>
       </c>
       <c r="X553" s="65">
         <v>9999999</v>
@@ -46950,7 +46950,7 @@
         <v>2051</v>
       </c>
       <c r="W554" s="65" t="s">
-        <v>1424</v>
+        <v>2077</v>
       </c>
       <c r="X554" s="65">
         <v>9999999</v>
@@ -47018,7 +47018,7 @@
         <v>2055</v>
       </c>
       <c r="W555" s="65" t="s">
-        <v>1424</v>
+        <v>2077</v>
       </c>
       <c r="X555" s="65">
         <v>9999999</v>
@@ -47086,7 +47086,7 @@
         <v>2058</v>
       </c>
       <c r="W556" s="65" t="s">
-        <v>1424</v>
+        <v>2076</v>
       </c>
       <c r="X556" s="65">
         <v>9999999</v>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -8919,7 +8919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8992,6 +8992,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9035,7 +9041,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9241,6 +9247,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11677,10 +11692,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y530" sqref="Y530"/>
+      <selection pane="bottomRight" activeCell="Z546" sqref="Z546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46091,458 +46106,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="69">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="69">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>1</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="69">
+        <v>1</v>
+      </c>
+      <c r="G542" s="69" t="s">
         <v>2006</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="69" t="s">
         <v>2008</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="69">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="69">
+        <v>0</v>
+      </c>
+      <c r="N542" s="69">
+        <v>0</v>
+      </c>
+      <c r="O542" s="69" t="s">
         <v>2009</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="69">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="69" t="s">
         <v>2010</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="70" t="s">
         <v>2011</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="69" t="s">
         <v>2012</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="69">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="69">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>1</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="69">
+        <v>1</v>
+      </c>
+      <c r="G543" s="69" t="s">
         <v>2013</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="69" t="s">
         <v>1310</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="69">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="69">
+        <v>0</v>
+      </c>
+      <c r="N543" s="69">
+        <v>0</v>
+      </c>
+      <c r="O543" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="69">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="69" t="s">
         <v>1490</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="70" t="s">
         <v>1213</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="69">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="69">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>1</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="69">
+        <v>1</v>
+      </c>
+      <c r="G544" s="69" t="s">
         <v>2014</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="69" t="s">
         <v>2015</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="69" t="s">
         <v>1810</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="69">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="69">
+        <v>0</v>
+      </c>
+      <c r="N544" s="69">
+        <v>0</v>
+      </c>
+      <c r="O544" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="69">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="69" t="s">
         <v>1489</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="70" t="s">
         <v>1217</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="69">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="69">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>1</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="69">
+        <v>1</v>
+      </c>
+      <c r="G545" s="69" t="s">
         <v>2016</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="69" t="s">
         <v>1308</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="69">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="69">
+        <v>0</v>
+      </c>
+      <c r="N545" s="69">
+        <v>0</v>
+      </c>
+      <c r="O545" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="69">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="69" t="s">
         <v>2017</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="70" t="s">
         <v>1211</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="69">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="69">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>1</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="69">
+        <v>1</v>
+      </c>
+      <c r="G546" s="69" t="s">
         <v>2018</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="69" t="s">
         <v>2015</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="69" t="s">
         <v>2019</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="69">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="69">
+        <v>0</v>
+      </c>
+      <c r="N546" s="69">
+        <v>0</v>
+      </c>
+      <c r="O546" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="69">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="69" t="s">
         <v>1489</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="70" t="s">
         <v>1307</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="69">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="69">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>1</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="69">
+        <v>1</v>
+      </c>
+      <c r="G547" s="69" t="s">
         <v>2020</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="69" t="s">
         <v>2021</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="69">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="69">
+        <v>0</v>
+      </c>
+      <c r="N547" s="69">
+        <v>0</v>
+      </c>
+      <c r="O547" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="69">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="69" t="s">
         <v>2022</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="70" t="s">
         <v>2023</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="69">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="69">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>1</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="69">
+        <v>1</v>
+      </c>
+      <c r="G548" s="69" t="s">
         <v>2024</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="69" t="s">
         <v>1303</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="69">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="69">
+        <v>0</v>
+      </c>
+      <c r="N548" s="69">
+        <v>0</v>
+      </c>
+      <c r="O548" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="69">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="69" t="s">
         <v>2022</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="70" t="s">
         <v>1785</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="69">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/shoping_config_cjj.xlsx
+++ b/config_2.9/shoping_config_cjj.xlsx
@@ -8791,11 +8791,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,</t>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8803,59 +8843,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"510万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"20万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"300万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"1020万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2050万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9049,7 +9049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9265,6 +9265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11700,10 +11703,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q553" sqref="Q553"/>
+      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46610,7 +46613,7 @@
         <v>2032</v>
       </c>
       <c r="W549" s="63" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
       <c r="X549" s="63">
         <v>9999999</v>
@@ -46678,7 +46681,7 @@
         <v>2035</v>
       </c>
       <c r="W550" s="63" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
       <c r="X550" s="63">
         <v>9999999</v>
@@ -46814,7 +46817,7 @@
         <v>2042</v>
       </c>
       <c r="W552" s="63" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
       <c r="X552" s="63">
         <v>9999999</v>
@@ -46882,7 +46885,7 @@
         <v>2047</v>
       </c>
       <c r="W553" s="65" t="s">
-        <v>2076</v>
+        <v>2063</v>
       </c>
       <c r="X553" s="65">
         <v>9999999</v>
@@ -46950,7 +46953,7 @@
         <v>2051</v>
       </c>
       <c r="W554" s="65" t="s">
-        <v>2077</v>
+        <v>2064</v>
       </c>
       <c r="X554" s="65">
         <v>9999999</v>
@@ -47018,7 +47021,7 @@
         <v>2055</v>
       </c>
       <c r="W555" s="65" t="s">
-        <v>2077</v>
+        <v>2064</v>
       </c>
       <c r="X555" s="65">
         <v>9999999</v>
@@ -47086,7 +47089,7 @@
         <v>2058</v>
       </c>
       <c r="W556" s="65" t="s">
-        <v>2076</v>
+        <v>2063</v>
       </c>
       <c r="X556" s="65">
         <v>9999999</v>
@@ -47130,7 +47133,7 @@
         <v>2060</v>
       </c>
       <c r="J557" s="67" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="L557" s="67">
         <v>-25</v>
@@ -47150,8 +47153,8 @@
       <c r="Q557" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R557" s="68" t="s">
-        <v>2062</v>
+      <c r="R557" s="72" t="s">
+        <v>2065</v>
       </c>
       <c r="W557" s="67" t="s">
         <v>541</v>
@@ -47196,7 +47199,7 @@
         <v>2059</v>
       </c>
       <c r="J558" s="67" t="s">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="L558" s="67">
         <v>-25</v>
@@ -47216,8 +47219,8 @@
       <c r="Q558" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R558" s="68" t="s">
-        <v>2064</v>
+      <c r="R558" s="72" t="s">
+        <v>2066</v>
       </c>
       <c r="W558" s="67" t="s">
         <v>541</v>
@@ -47262,7 +47265,7 @@
         <v>2060</v>
       </c>
       <c r="J559" s="67" t="s">
-        <v>2065</v>
+        <v>2074</v>
       </c>
       <c r="L559" s="67">
         <v>-25</v>
@@ -47282,8 +47285,8 @@
       <c r="Q559" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R559" s="68" t="s">
-        <v>2066</v>
+      <c r="R559" s="72" t="s">
+        <v>2067</v>
       </c>
       <c r="W559" s="67" t="s">
         <v>541</v>
@@ -47322,13 +47325,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="67" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="I560" s="67" t="s">
         <v>2060</v>
       </c>
       <c r="J560" s="67" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="L560" s="67">
         <v>-25</v>
@@ -47348,8 +47351,8 @@
       <c r="Q560" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R560" s="68" t="s">
-        <v>2062</v>
+      <c r="R560" s="72" t="s">
+        <v>2065</v>
       </c>
       <c r="W560" s="67" t="s">
         <v>541</v>
@@ -47394,7 +47397,7 @@
         <v>2059</v>
       </c>
       <c r="J561" s="67" t="s">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="L561" s="67">
         <v>-25</v>
@@ -47414,8 +47417,8 @@
       <c r="Q561" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R561" s="68" t="s">
-        <v>1419</v>
+      <c r="R561" s="72" t="s">
+        <v>2068</v>
       </c>
       <c r="W561" s="67" t="s">
         <v>541</v>
@@ -47460,7 +47463,7 @@
         <v>2060</v>
       </c>
       <c r="J562" s="67" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="L562" s="67">
         <v>-25</v>
@@ -47480,8 +47483,8 @@
       <c r="Q562" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R562" s="68" t="s">
-        <v>2071</v>
+      <c r="R562" s="72" t="s">
+        <v>2069</v>
       </c>
       <c r="W562" s="67" t="s">
         <v>541</v>
@@ -47526,7 +47529,7 @@
         <v>2060</v>
       </c>
       <c r="J563" s="67" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="L563" s="67">
         <v>-25</v>
@@ -47546,8 +47549,8 @@
       <c r="Q563" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R563" s="68" t="s">
-        <v>2062</v>
+      <c r="R563" s="72" t="s">
+        <v>2065</v>
       </c>
       <c r="W563" s="67" t="s">
         <v>541</v>
@@ -47592,7 +47595,7 @@
         <v>2059</v>
       </c>
       <c r="J564" s="67" t="s">
-        <v>2065</v>
+        <v>2074</v>
       </c>
       <c r="L564" s="67">
         <v>-25</v>
@@ -47612,8 +47615,8 @@
       <c r="Q564" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R564" s="68" t="s">
-        <v>2072</v>
+      <c r="R564" s="72" t="s">
+        <v>2067</v>
       </c>
       <c r="W564" s="67" t="s">
         <v>541</v>
@@ -47658,7 +47661,7 @@
         <v>2060</v>
       </c>
       <c r="J565" s="67" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="L565" s="67">
         <v>-25</v>
@@ -47678,8 +47681,8 @@
       <c r="Q565" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="R565" s="68" t="s">
-        <v>2074</v>
+      <c r="R565" s="72" t="s">
+        <v>2070</v>
       </c>
       <c r="W565" s="67" t="s">
         <v>541</v>
